--- a/data/trans_dic/PER_DISPO_VERDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>86,1%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,98; 91,24</t>
+          <t>78,48; 91,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,83; 90,79</t>
+          <t>77,61; 90,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,22; 89,95</t>
+          <t>80,95; 89,76</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,84%</t>
+          <t>86,81%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,8; 90,58</t>
+          <t>85,9; 90,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,57; 87,99</t>
+          <t>82,59; 87,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,97; 88,4</t>
+          <t>84,96; 88,48</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,91; 89,46</t>
+          <t>83,05; 89,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,67; 88,48</t>
+          <t>82,86; 88,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,82; 88,25</t>
+          <t>83,85; 88,12</t>
         </is>
       </c>
     </row>
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>86,41%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,29; 89,12</t>
+          <t>85,37; 89,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,47; 87,33</t>
+          <t>83,58; 87,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,06; 87,69</t>
+          <t>85,1; 87,74</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Percepción de la disponibilidad de zonas verdes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>85133</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103138</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>188271</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>77343; 89911</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93211; 108347</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>176991; 196266</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1386</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>314065</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>302270</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>616336</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>305592; 321474</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>292499; 311375</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>603185; 628138</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>193362</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>242635</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>435998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>186011; 199707</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>234604; 250674</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>425222; 446858</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>592561</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>648045</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1240605</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>579081; 604765</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>633058; 661843</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1221753; 1259755</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/PER_DISPO_VERDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Estudios-trans_dic.xlsx
@@ -498,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes</t>
+          <t>Percepción de la disponibilidad de zonas verdes (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -790,7 +790,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes</t>
+          <t>Percepción de la disponibilidad de zonas verdes (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/PER_DISPO_VERDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Estudios-trans_dic.xlsx
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,48; 91,23</t>
+          <t>77,7; 91,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,61; 90,21</t>
+          <t>79,15; 90,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,95; 89,76</t>
+          <t>81,23; 89,75</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,9; 90,36</t>
+          <t>85,73; 90,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,59; 87,92</t>
+          <t>82,6; 87,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,96; 88,48</t>
+          <t>85,03; 88,55</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,05; 89,16</t>
+          <t>82,89; 89,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,86; 88,54</t>
+          <t>82,43; 88,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,85; 88,12</t>
+          <t>83,6; 88,11</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,37; 89,16</t>
+          <t>85,33; 89,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,58; 87,38</t>
+          <t>83,57; 87,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,1; 87,74</t>
+          <t>84,99; 87,71</t>
         </is>
       </c>
     </row>
@@ -895,17 +895,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77343; 89911</t>
+          <t>76580; 90413</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93211; 108347</t>
+          <t>95066; 108865</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>176991; 196266</t>
+          <t>177607; 196247</t>
         </is>
       </c>
     </row>
@@ -968,17 +968,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>305592; 321474</t>
+          <t>304997; 322215</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>292499; 311375</t>
+          <t>292541; 311212</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>603185; 628138</t>
+          <t>603661; 628628</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>186011; 199707</t>
+          <t>185644; 199682</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>234604; 250674</t>
+          <t>233383; 250428</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>425222; 446858</t>
+          <t>423966; 446796</t>
         </is>
       </c>
     </row>
@@ -1114,17 +1114,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579081; 604765</t>
+          <t>578787; 604288</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>633058; 661843</t>
+          <t>632951; 663091</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1221753; 1259755</t>
+          <t>1220179; 1259279</t>
         </is>
       </c>
     </row>
